--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il21-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il21-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Il21</t>
+  </si>
+  <si>
+    <t>Il2rg</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il21</t>
-  </si>
-  <si>
-    <t>Il2rg</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.013101</v>
       </c>
       <c r="I2">
-        <v>0.08269188892360421</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.08455476600770617</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N2">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O2">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P2">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q2">
-        <v>0.1350834182353333</v>
+        <v>0.170051704922</v>
       </c>
       <c r="R2">
-        <v>1.215750764118</v>
+        <v>1.530465344298</v>
       </c>
       <c r="S2">
-        <v>0.01327809124364879</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="T2">
-        <v>0.01392945406429767</v>
+        <v>0.1644242630434466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.013101</v>
       </c>
       <c r="I3">
-        <v>0.08269188892360421</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.08455476600770617</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,13 +623,13 @@
         <v>2.595096</v>
       </c>
       <c r="N3">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O3">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P3">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q3">
         <v>0.011332784232</v>
@@ -638,10 +638,10 @@
         <v>0.101995058088</v>
       </c>
       <c r="S3">
-        <v>0.001113961617516429</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="T3">
-        <v>0.001168607512620303</v>
+        <v>0.01095775368104481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.013101</v>
       </c>
       <c r="I4">
-        <v>0.08269188892360421</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.08455476600770617</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N4">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O4">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P4">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q4">
-        <v>0.346092925024</v>
+        <v>0.503767883795</v>
       </c>
       <c r="R4">
-        <v>3.114836325216</v>
+        <v>4.533910954155</v>
       </c>
       <c r="S4">
-        <v>0.03401937482248248</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="T4">
-        <v>0.03568821076693218</v>
+        <v>0.487096927819354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.013101</v>
       </c>
       <c r="I5">
-        <v>0.08269188892360421</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.08455476600770617</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N5">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O5">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P5">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q5">
-        <v>0.06381883361150001</v>
+        <v>0.0281852271965</v>
       </c>
       <c r="R5">
-        <v>0.382913001669</v>
+        <v>0.169111363179</v>
       </c>
       <c r="S5">
-        <v>0.006273103737132759</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="T5">
-        <v>0.004387222467624935</v>
+        <v>0.01816833773242602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.013101</v>
       </c>
       <c r="I6">
-        <v>0.08269188892360421</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.08455476600770617</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,648 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N6">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O6">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P6">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q6">
-        <v>0.284930229639</v>
+        <v>0.3302826061993333</v>
       </c>
       <c r="R6">
-        <v>2.564372066751</v>
+        <v>2.972543455794</v>
       </c>
       <c r="S6">
-        <v>0.02800735750282377</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="T6">
-        <v>0.02938127119623109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.04495299999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.134859</v>
-      </c>
-      <c r="I7">
-        <v>0.8512133003853399</v>
-      </c>
-      <c r="J7">
-        <v>0.8703893740197882</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>30.93277266666666</v>
-      </c>
-      <c r="N7">
-        <v>92.79831799999999</v>
-      </c>
-      <c r="O7">
-        <v>0.1605730793731885</v>
-      </c>
-      <c r="P7">
-        <v>0.1647388399493432</v>
-      </c>
-      <c r="Q7">
-        <v>1.390520929684666</v>
-      </c>
-      <c r="R7">
-        <v>12.514688367162</v>
-      </c>
-      <c r="S7">
-        <v>0.1366819408462889</v>
-      </c>
-      <c r="T7">
-        <v>0.1433869357802549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.04495299999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.134859</v>
-      </c>
-      <c r="I8">
-        <v>0.8512133003853399</v>
-      </c>
-      <c r="J8">
-        <v>0.8703893740197882</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.595096</v>
-      </c>
-      <c r="N8">
-        <v>7.785288000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.01347123196744937</v>
-      </c>
-      <c r="P8">
-        <v>0.01382071724394339</v>
-      </c>
-      <c r="Q8">
-        <v>0.116657350488</v>
-      </c>
-      <c r="R8">
-        <v>1.049916154392</v>
-      </c>
-      <c r="S8">
-        <v>0.01146689182326907</v>
-      </c>
-      <c r="T8">
-        <v>0.01202940543046038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.04495299999999999</v>
-      </c>
-      <c r="H9">
-        <v>0.134859</v>
-      </c>
-      <c r="I9">
-        <v>0.8512133003853399</v>
-      </c>
-      <c r="J9">
-        <v>0.8703893740197882</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>79.25187200000001</v>
-      </c>
-      <c r="N9">
-        <v>237.755616</v>
-      </c>
-      <c r="O9">
-        <v>0.411399174275867</v>
-      </c>
-      <c r="P9">
-        <v>0.4220721368169787</v>
-      </c>
-      <c r="Q9">
-        <v>3.562609402016</v>
-      </c>
-      <c r="R9">
-        <v>32.063484618144</v>
-      </c>
-      <c r="S9">
-        <v>0.3501884489111644</v>
-      </c>
-      <c r="T9">
-        <v>0.3673671029553245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.04495299999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.134859</v>
-      </c>
-      <c r="I10">
-        <v>0.8512133003853399</v>
-      </c>
-      <c r="J10">
-        <v>0.8703893740197882</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.6138845</v>
-      </c>
-      <c r="N10">
-        <v>29.227769</v>
-      </c>
-      <c r="O10">
-        <v>0.07586117355389273</v>
-      </c>
-      <c r="P10">
-        <v>0.05188616413680444</v>
-      </c>
-      <c r="Q10">
-        <v>0.6569379499285</v>
-      </c>
-      <c r="R10">
-        <v>3.941627699571</v>
-      </c>
-      <c r="S10">
-        <v>0.0645740399119141</v>
-      </c>
-      <c r="T10">
-        <v>0.0451611659233212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.04495299999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.134859</v>
-      </c>
-      <c r="I11">
-        <v>0.8512133003853399</v>
-      </c>
-      <c r="J11">
-        <v>0.8703893740197882</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>65.246217</v>
-      </c>
-      <c r="N11">
-        <v>195.738651</v>
-      </c>
-      <c r="O11">
-        <v>0.3386953408296026</v>
-      </c>
-      <c r="P11">
-        <v>0.3474821418529304</v>
-      </c>
-      <c r="Q11">
-        <v>2.933013192800999</v>
-      </c>
-      <c r="R11">
-        <v>26.39711873520899</v>
-      </c>
-      <c r="S11">
-        <v>0.2883019788927036</v>
-      </c>
-      <c r="T11">
-        <v>0.3024447639304273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.0034905</v>
-      </c>
-      <c r="H12">
-        <v>0.006981</v>
-      </c>
-      <c r="I12">
-        <v>0.06609481069105576</v>
-      </c>
-      <c r="J12">
-        <v>0.04505585997250568</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>30.93277266666666</v>
-      </c>
-      <c r="N12">
-        <v>92.79831799999999</v>
-      </c>
-      <c r="O12">
-        <v>0.1605730793731885</v>
-      </c>
-      <c r="P12">
-        <v>0.1647388399493432</v>
-      </c>
-      <c r="Q12">
-        <v>0.107970842993</v>
-      </c>
-      <c r="R12">
-        <v>0.6478250579579999</v>
-      </c>
-      <c r="S12">
-        <v>0.01061304728325076</v>
-      </c>
-      <c r="T12">
-        <v>0.00742245010479063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.0034905</v>
-      </c>
-      <c r="H13">
-        <v>0.006981</v>
-      </c>
-      <c r="I13">
-        <v>0.06609481069105576</v>
-      </c>
-      <c r="J13">
-        <v>0.04505585997250568</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.595096</v>
-      </c>
-      <c r="N13">
-        <v>7.785288000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.01347123196744937</v>
-      </c>
-      <c r="P13">
-        <v>0.01382071724394339</v>
-      </c>
-      <c r="Q13">
-        <v>0.009058182588000001</v>
-      </c>
-      <c r="R13">
-        <v>0.05434909552800001</v>
-      </c>
-      <c r="S13">
-        <v>0.0008903785266638646</v>
-      </c>
-      <c r="T13">
-        <v>0.0006227043008627079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.0034905</v>
-      </c>
-      <c r="H14">
-        <v>0.006981</v>
-      </c>
-      <c r="I14">
-        <v>0.06609481069105576</v>
-      </c>
-      <c r="J14">
-        <v>0.04505585997250568</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>79.25187200000001</v>
-      </c>
-      <c r="N14">
-        <v>237.755616</v>
-      </c>
-      <c r="O14">
-        <v>0.411399174275867</v>
-      </c>
-      <c r="P14">
-        <v>0.4220721368169787</v>
-      </c>
-      <c r="Q14">
-        <v>0.2766286592160001</v>
-      </c>
-      <c r="R14">
-        <v>1.659771955296</v>
-      </c>
-      <c r="S14">
-        <v>0.02719135054222008</v>
-      </c>
-      <c r="T14">
-        <v>0.01901682309472205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.0034905</v>
-      </c>
-      <c r="H15">
-        <v>0.006981</v>
-      </c>
-      <c r="I15">
-        <v>0.06609481069105576</v>
-      </c>
-      <c r="J15">
-        <v>0.04505585997250568</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>14.6138845</v>
-      </c>
-      <c r="N15">
-        <v>29.227769</v>
-      </c>
-      <c r="O15">
-        <v>0.07586117355389273</v>
-      </c>
-      <c r="P15">
-        <v>0.05188616413680444</v>
-      </c>
-      <c r="Q15">
-        <v>0.05100976384725001</v>
-      </c>
-      <c r="R15">
-        <v>0.204039055389</v>
-      </c>
-      <c r="S15">
-        <v>0.005014029904845865</v>
-      </c>
-      <c r="T15">
-        <v>0.002337775745858307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.0034905</v>
-      </c>
-      <c r="H16">
-        <v>0.006981</v>
-      </c>
-      <c r="I16">
-        <v>0.06609481069105576</v>
-      </c>
-      <c r="J16">
-        <v>0.04505585997250568</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>65.246217</v>
-      </c>
-      <c r="N16">
-        <v>195.738651</v>
-      </c>
-      <c r="O16">
-        <v>0.3386953408296026</v>
-      </c>
-      <c r="P16">
-        <v>0.3474821418529304</v>
-      </c>
-      <c r="Q16">
-        <v>0.2277419204385</v>
-      </c>
-      <c r="R16">
-        <v>1.366451522631</v>
-      </c>
-      <c r="S16">
-        <v>0.02238600443407519</v>
-      </c>
-      <c r="T16">
-        <v>0.01565610672627198</v>
+        <v>0.3193527177237286</v>
       </c>
     </row>
   </sheetData>
